--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2432010.484773967</v>
+        <v>2427705.732535155</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>187.0462654106501</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.0462654106498</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.69675250523221</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>64.33077982535492</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>38.56545518263867</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>74.36705745126962</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>364.3145922690908</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28773869504416</v>
+        <v>87.37964348232622</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>133.8151670015073</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>11.84116559831756</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>169.1610557404664</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.96483578850866</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787262</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>211.5433837317041</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>248.361083062173</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>52.46715756763073</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719208</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155179</v>
+        <v>25.42862793155159</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>211.1292411394188</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>74.252079872639</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>227.0484759968776</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.0595141466534</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9271808900455</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.97191586387568</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>21.69718571885219</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>266.3321854924545</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>32.44181015857511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>125.2193560244677</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.00490843294757</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.445727774094267</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>65.994800130306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108.6115798077508</v>
+        <v>73.97774435452</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>150.6726801246962</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.69284018413003</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659133</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>393.3574536167093</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823981</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659133</v>
+        <v>589.7227393823975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8624079336487</v>
+        <v>344.079722251358</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>344.079722251358</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>195.1453125901068</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>35.90785758465125</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>35.90785758465125</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>35.90785758465125</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>35.90785758465125</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772653</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323103</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158254</v>
+        <v>344.079722251358</v>
       </c>
       <c r="X3" t="n">
-        <v>116.8624079336487</v>
+        <v>344.079722251358</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.8624079336487</v>
+        <v>344.079722251358</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5643237990279</v>
+        <v>375.6572481379027</v>
       </c>
       <c r="C4" t="n">
-        <v>485.5643237990279</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="D4" t="n">
-        <v>485.5643237990279</v>
+        <v>186.5856034905784</v>
       </c>
       <c r="E4" t="n">
-        <v>485.5643237990279</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="F4" t="n">
-        <v>338.6743763011175</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349385</v>
+        <v>262.5553157873387</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>448.2056470819953</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>674.9841088155127</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>674.9841088155127</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W4" t="n">
-        <v>674.9841088155127</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X4" t="n">
-        <v>674.9841088155127</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.5643237990279</v>
+        <v>557.3057129681424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.2731749662939</v>
+        <v>1355.397665784356</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2786373207477</v>
+        <v>986.4351488439447</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2786373207477</v>
+        <v>628.1694502371943</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2786373207477</v>
+        <v>628.1694502371943</v>
       </c>
       <c r="F5" t="n">
-        <v>141.3331365715442</v>
+        <v>217.1835454475867</v>
       </c>
       <c r="G5" t="n">
         <v>128.9212793038228</v>
@@ -4597,22 +4597,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1474.442682189358</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.801820570945</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>889.7389332273739</v>
+        <v>1355.397665784356</v>
       </c>
       <c r="W5" t="n">
-        <v>889.7389332273739</v>
+        <v>1355.397665784356</v>
       </c>
       <c r="X5" t="n">
-        <v>516.2731749662939</v>
+        <v>1355.397665784356</v>
       </c>
       <c r="Y5" t="n">
-        <v>516.2731749662939</v>
+        <v>1355.397665784356</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>743.5989604617819</v>
+        <v>613.2439521774281</v>
       </c>
       <c r="C6" t="n">
-        <v>743.5989604617819</v>
+        <v>438.7909228963011</v>
       </c>
       <c r="D6" t="n">
-        <v>608.432125106724</v>
+        <v>289.8565132350499</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1946701012685</v>
+        <v>289.8565132350499</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>143.3219552619348</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.967182080082</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.296143033791</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.574596246804</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1119.574596246804</v>
+        <v>1451.308444896184</v>
       </c>
       <c r="W6" t="n">
-        <v>1119.574596246804</v>
+        <v>1197.071088167983</v>
       </c>
       <c r="X6" t="n">
-        <v>1119.574596246804</v>
+        <v>989.2195879624501</v>
       </c>
       <c r="Y6" t="n">
-        <v>911.81429748185</v>
+        <v>781.4592891974962</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.4492996119732</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>185.4492996119732</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>185.4492996119732</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4492996119732</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>185.4492996119732</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>866.2482590365996</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>577.1116320287017</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>406.2418787555033</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>406.2418787555033</v>
+        <v>1278.015669354892</v>
       </c>
       <c r="X7" t="n">
-        <v>406.2418787555033</v>
+        <v>1050.026118456874</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.4492996119732</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1613.957808817525</v>
+        <v>1580.307705445926</v>
       </c>
       <c r="C8" t="n">
-        <v>1613.957808817525</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.692110210775</v>
+        <v>853.0794898987638</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.692110210775</v>
+        <v>467.2912373005196</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7062054211672</v>
+        <v>56.30533251091202</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7160153974696</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872715</v>
+        <v>156.8927045872722</v>
       </c>
       <c r="K8" t="n">
-        <v>376.295250515901</v>
+        <v>376.2952505159029</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985294</v>
+        <v>685.3852714985328</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556945</v>
+        <v>1060.976912556951</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.25982741549</v>
+        <v>1447.259827415498</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975112</v>
+        <v>1798.680568975121</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063109</v>
+        <v>2064.109040631101</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208129</v>
+        <v>2215.26202220814</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="W8" t="n">
-        <v>2004.097140793337</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.097140793337</v>
+        <v>1966.907545510048</v>
       </c>
       <c r="Y8" t="n">
-        <v>1613.957808817525</v>
+        <v>1966.907545510048</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>583.2797313720821</v>
+        <v>931.298865693644</v>
       </c>
       <c r="C9" t="n">
-        <v>408.8267020909551</v>
+        <v>756.845836412517</v>
       </c>
       <c r="D9" t="n">
-        <v>259.8922924297038</v>
+        <v>607.9114267512657</v>
       </c>
       <c r="E9" t="n">
-        <v>206.8951635735112</v>
+        <v>448.6739717458101</v>
       </c>
       <c r="F9" t="n">
-        <v>206.8951635735112</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="G9" t="n">
-        <v>70.04102928676156</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676156</v>
+        <v>70.04102928676161</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424089</v>
+        <v>217.3941849412465</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643083</v>
+        <v>462.6427349937699</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939849</v>
+        <v>724.8457108234478</v>
       </c>
       <c r="M9" t="n">
-        <v>840.6532621440908</v>
+        <v>1050.181084473555</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.007939984845</v>
+        <v>1398.53576231431</v>
       </c>
       <c r="O9" t="n">
-        <v>1587.690814634406</v>
+        <v>1694.992440729464</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855273</v>
+        <v>1913.591994996794</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380917</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472983</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.59648406444</v>
+        <v>2217.777326380929</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322581</v>
+        <v>2004.515466644143</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090838</v>
+        <v>1769.3633584124</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362637</v>
+        <v>1515.126001684199</v>
       </c>
       <c r="X9" t="n">
-        <v>959.255367157104</v>
+        <v>1307.274501478666</v>
       </c>
       <c r="Y9" t="n">
-        <v>751.4950683921502</v>
+        <v>1099.514202713712</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.8746176481594</v>
+        <v>585.3004172472251</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9384347202525</v>
+        <v>416.3642343193183</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9384347202525</v>
+        <v>266.2475949069825</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9384347202525</v>
+        <v>266.2475949069825</v>
       </c>
       <c r="F10" t="n">
-        <v>303.9384347202525</v>
+        <v>119.3576474090721</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202525</v>
+        <v>119.3576474090721</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761834</v>
+        <v>44.35554652761859</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692035</v>
+        <v>60.95254262692095</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274031</v>
+        <v>218.0633423274043</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918438</v>
+        <v>474.6375091918457</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921713</v>
+        <v>755.548116892174</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629322</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546131</v>
+        <v>1277.514248546135</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.32336065924</v>
+        <v>1461.323360659245</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155968</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620022</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="S10" t="n">
-        <v>1396.807701620022</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="T10" t="n">
-        <v>1173.282147461701</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="U10" t="n">
-        <v>1173.282147461701</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="V10" t="n">
-        <v>943.9402525153598</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="W10" t="n">
-        <v>654.5230824783991</v>
+        <v>1215.731012119012</v>
       </c>
       <c r="X10" t="n">
-        <v>654.5230824783991</v>
+        <v>987.741461220995</v>
       </c>
       <c r="Y10" t="n">
-        <v>654.5230824783991</v>
+        <v>766.9488820774649</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.964939354869</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>883.0287564269624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>732.9121170146267</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>584.9990234322336</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>438.1090759343232</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>270.9129766492031</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5238,13 +5238,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.964939354869</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>3210.485548300425</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>3807.864035926977</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>4435.461999481584</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>4435.461999481584</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.890000432079</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.472830395119</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.483279497101</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.6907003535711</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.6145409888043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2415.678320081396</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2232.8234857363</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2013.222020759241</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1724.146794103439</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1469.462305897552</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1180.045135860591</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>952.0555849625741</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.263005819044</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,13 +5752,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>634.3345878491255</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>486.4214942667323</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>339.531546768822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6314,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2414.193578369582</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2194.592113392523</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1905.516886736721</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926978</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3807.864035926978</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4359.773766166265</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583949</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656042</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243707</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4589.439056294484</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4369.837591317425</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>4080.762364661623</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>3826.077876455736</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>3826.077876455736</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>3598.088325557719</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414189</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606607</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327538</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>635.194822520418</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>487.2817289380249</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,43 +6943,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7450,7 +7450,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2546.907945506608</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3042.233551722367</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.612039348919</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.737987917318</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.662761261515</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.978273055629</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>3744.978273055629</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,28 +7660,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7690,10 +7690,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892237</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768879</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E46" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>267.5122958789775</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
   </sheetData>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528964</v>
+        <v>145.2551346857769</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.359858416601</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>85.5532296388435</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>103.2587840751608</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688307</v>
+        <v>30.32522655688271</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>46.23519869957049</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="V16" t="n">
-        <v>111.2104624337825</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.40333084624601</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>143.8269525734167</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>148.5844758430695</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>126.9182872993603</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>147.021377568697</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>142.975320248837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>186.142843193522</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.2204003741865</v>
+        <v>105.8542358274173</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>66.73277020259206</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>68.49784254931393</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>74.83129810813881</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>824712.356164075</v>
+        <v>824712.3561640751</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>800386.7019280271</v>
+        <v>800386.701928027</v>
       </c>
     </row>
     <row r="14">
@@ -26316,16 +26316,16 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.614759755</v>
@@ -26334,28 +26334,28 @@
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296909</v>
+        <v>138712.7919296943</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745745</v>
+        <v>589678.7921745717</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484309</v>
+        <v>33617.8733648439</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167273</v>
+        <v>154073.8510167265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296187</v>
+        <v>170385.5244296178</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26459,7 +26459,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969312</v>
+        <v>86168.04029969338</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290204.5079508456</v>
+        <v>-290204.5079508455</v>
       </c>
       <c r="C6" t="n">
-        <v>92318.2682722368</v>
+        <v>92318.26827223698</v>
       </c>
       <c r="D6" t="n">
-        <v>241041.0149858167</v>
+        <v>241041.0149858142</v>
       </c>
       <c r="E6" t="n">
-        <v>-79479.45931558177</v>
+        <v>-79826.83856993567</v>
       </c>
       <c r="F6" t="n">
-        <v>510199.3328589928</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="G6" t="n">
-        <v>510199.3328589928</v>
+        <v>509851.9536046358</v>
       </c>
       <c r="H6" t="n">
-        <v>510199.3328589924</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="I6" t="n">
-        <v>510199.3328589927</v>
+        <v>509851.9536046356</v>
       </c>
       <c r="J6" t="n">
-        <v>461134.3881304478</v>
+        <v>460787.008876091</v>
       </c>
       <c r="K6" t="n">
-        <v>449952.173267457</v>
+        <v>449604.7940131</v>
       </c>
       <c r="L6" t="n">
-        <v>476581.4594941497</v>
+        <v>476234.0802397917</v>
       </c>
       <c r="M6" t="n">
-        <v>356125.4818422655</v>
+        <v>355778.1025879089</v>
       </c>
       <c r="N6" t="n">
-        <v>510199.3328589926</v>
+        <v>509851.9536046356</v>
       </c>
       <c r="O6" t="n">
-        <v>510199.3328589926</v>
+        <v>509851.9536046357</v>
       </c>
       <c r="P6" t="n">
-        <v>510199.3328589929</v>
+        <v>509851.9536046356</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790455</v>
+        <v>863.7717861790483</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952292</v>
+        <v>554.4443315952324</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814355</v>
+        <v>113.7908296814383</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626282</v>
+        <v>504.2037141626257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132506</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132506</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132473</v>
+        <v>132.8291933132506</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044192</v>
+        <v>618.2639565044162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>194.8841046616116</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>226.0515678194082</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>28.08205925027437</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,16 +27514,16 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>141.4422053781225</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.6813659159891</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>211.8980240421807</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9582995019167697</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>324.9080952127179</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27669,10 +27669,10 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13.62989856313149</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>123.889184979219</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27824,22 +27824,22 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>82.97658758336161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>271.5581625480824</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.91257978328</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787219</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>129.8916290734612</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>137.6975849857089</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>121.370017616296</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27940,16 +27940,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>105.1779228877702</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>14.6899090850213</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>74.12642366950371</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305864</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>25.08916732695045</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.792208340690288e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674552</v>
+        <v>3.472449391674563</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248702</v>
+        <v>35.56222233248713</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.8716051725337</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566383</v>
+        <v>294.7198015566393</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062222</v>
+        <v>441.7085843062236</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766824</v>
+        <v>547.9785573766841</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458747</v>
+        <v>609.7317292458766</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799701</v>
+        <v>619.597826079972</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415062</v>
+        <v>585.068657441508</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845406</v>
+        <v>499.3425630845422</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451956</v>
+        <v>374.9854692451967</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997768</v>
+        <v>218.1262490997775</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278394</v>
+        <v>79.12844051278419</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205536</v>
+        <v>15.20064721205541</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339641</v>
+        <v>0.277795951333965</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328513</v>
+        <v>1.857924219328519</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930433</v>
+        <v>17.94363653930438</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986329</v>
+        <v>63.96800491986349</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743668</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693766</v>
+        <v>300.0140174693776</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169213</v>
+        <v>403.4058705169226</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675798</v>
+        <v>470.7556234675812</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436908</v>
+        <v>483.2151240436923</v>
       </c>
       <c r="O9" t="n">
-        <v>442.04743476278</v>
+        <v>442.0474347627814</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873895</v>
+        <v>354.7820379873907</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391976</v>
+        <v>237.1623968391983</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>115.3542774070812</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498354</v>
+        <v>34.51012749498365</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363609</v>
+        <v>7.488738410363633</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.122231856534771</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765492</v>
+        <v>1.557621253765497</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529684</v>
+        <v>13.84866896529688</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869317</v>
+        <v>46.84191915869332</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.1238226412206</v>
       </c>
       <c r="K10" t="n">
-        <v>180.967269301118</v>
+        <v>180.9672693011186</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552805</v>
+        <v>231.5757998552812</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243488</v>
+        <v>244.1642116243496</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057686</v>
+        <v>238.3585324057693</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231443</v>
+        <v>220.162684123145</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463281</v>
+        <v>188.3872105463287</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130359</v>
+        <v>130.4295397130363</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658291</v>
+        <v>70.03631564658313</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951677</v>
+        <v>27.14509039516778</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543463</v>
+        <v>6.655290811543484</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629965</v>
+        <v>0.08496115929629992</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485695</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>485.1127032082907</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>195.7502366106269</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2159464875248</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>383.9182138639285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.1876769472499</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34859,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175041</v>
+        <v>157.4143504322377</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2973839334705</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029952</v>
+        <v>113.673897029953</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612416</v>
+        <v>221.6187332612431</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066951</v>
+        <v>312.2121424066968</v>
       </c>
       <c r="M8" t="n">
-        <v>379.385496018602</v>
+        <v>379.3854960186039</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833792</v>
+        <v>390.1847624833811</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198194</v>
+        <v>354.9704460198212</v>
       </c>
       <c r="P8" t="n">
-        <v>268.109567329271</v>
+        <v>268.1095673292726</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707461</v>
+        <v>152.6797793707472</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644676</v>
+        <v>2.540711285645358</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769955</v>
+        <v>174.786503448109</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950176</v>
+        <v>247.7258081338621</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370471</v>
+        <v>264.8514907370484</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455614</v>
+        <v>328.6215895455629</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603575</v>
+        <v>351.873411960359</v>
       </c>
       <c r="O9" t="n">
-        <v>402.7099743934964</v>
+        <v>299.451190318337</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129964</v>
+        <v>220.8076305730604</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317607</v>
+        <v>307.2579104890259</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454748</v>
+        <v>16.76464252454784</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752357</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.1658251155974</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861894</v>
+        <v>283.7480885861902</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849979</v>
       </c>
       <c r="O10" t="n">
-        <v>244.747812037184</v>
+        <v>244.7478120371847</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112216</v>
+        <v>185.6657698112222</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134148</v>
+        <v>44.26749646134191</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342392</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>342.5164587638463</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060485</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>61.77582919629669</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>55.87423440419153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.3462379728909</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2427705.732535155</v>
+        <v>2429466.26283794</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>133.8333590606442</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.0462654106498</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368123</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.69675250523221</v>
+        <v>48.77881175550654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714231</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>161.8193810873018</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.56545518263867</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>60.84311367291475</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>87.37964348232622</v>
+        <v>28.89396329640767</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.84116559831756</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>120.366215377217</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>219.4569845176696</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>14.96483578850866</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346049</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>244.5599993515113</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>248.361083062173</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>47.84012920312797</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719208</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155159</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>211.1292411394188</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>74.252079872639</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>76.43359024427592</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>212.8709032532584</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>76.28317487965494</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.5758943588665</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>266.3321854924545</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>125.2193560244677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695564</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>212.273790340509</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.97774435452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>77.93612009725524</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.7227393823975</v>
+        <v>414.0172523312956</v>
       </c>
       <c r="C2" t="n">
-        <v>589.7227393823975</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659128</v>
+        <v>35.17768229832531</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659128</v>
+        <v>35.17768229832531</v>
       </c>
       <c r="F2" t="n">
-        <v>393.3574536167093</v>
+        <v>28.23218154912183</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823975</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823975</v>
+        <v>549.2024635036635</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="C3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="D3" t="n">
-        <v>195.1453125901068</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="E3" t="n">
-        <v>35.90785758465125</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
-        <v>35.90785758465125</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>35.90785758465125</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>35.90785758465125</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843293</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843293</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843293</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>559.4653719941255</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678428</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="W3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="X3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0455869776404</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.6572481379027</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C4" t="n">
-        <v>336.7022429029141</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D4" t="n">
-        <v>186.5856034905784</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5553157873387</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819953</v>
+        <v>373.5399563830979</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>559.190287677755</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143053</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846272</v>
+        <v>688.6446580865794</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846272</v>
+        <v>499.2248730700942</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681424</v>
+        <v>309.8050880536091</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1355.397665784356</v>
+        <v>1296.321221152115</v>
       </c>
       <c r="C5" t="n">
-        <v>986.4351488439447</v>
+        <v>927.3587042117038</v>
       </c>
       <c r="D5" t="n">
-        <v>628.1694502371943</v>
+        <v>569.0930056049533</v>
       </c>
       <c r="E5" t="n">
-        <v>628.1694502371943</v>
+        <v>569.0930056049533</v>
       </c>
       <c r="F5" t="n">
-        <v>217.1835454475867</v>
+        <v>158.1071008153457</v>
       </c>
       <c r="G5" t="n">
         <v>128.9212793038228</v>
@@ -4603,16 +4603,16 @@
         <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1355.397665784356</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1355.397665784356</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>1355.397665784356</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="Y5" t="n">
-        <v>1355.397665784356</v>
+        <v>1296.321221152115</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.2439521774281</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="C6" t="n">
-        <v>438.7909228963011</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="D6" t="n">
-        <v>289.8565132350499</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="E6" t="n">
-        <v>289.8565132350499</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="F6" t="n">
-        <v>143.3219552619348</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="G6" t="n">
-        <v>131.3611819303009</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>206.1141890339551</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>415.7050622867857</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>679.644593782273</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>964.9784642156058</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1203.783415967064</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1564.878517393365</v>
       </c>
       <c r="T6" t="n">
-        <v>1686.460553127927</v>
+        <v>1369.259794860205</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1141.143377991176</v>
       </c>
       <c r="V6" t="n">
-        <v>1451.308444896184</v>
+        <v>905.9912697594334</v>
       </c>
       <c r="W6" t="n">
-        <v>1197.071088167983</v>
+        <v>651.7539130312318</v>
       </c>
       <c r="X6" t="n">
-        <v>989.2195879624501</v>
+        <v>443.902412825699</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.4592891974962</v>
+        <v>236.1421140607451</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>669.0168993920704</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>500.0807164641635</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>349.9640770518278</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4758,19 +4758,19 @@
         <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1071.45794336584</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>1071.45794336584</v>
       </c>
       <c r="W7" t="n">
-        <v>1278.015669354892</v>
+        <v>1071.45794336584</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.026118456874</v>
+        <v>1071.45794336584</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2335393133444</v>
+        <v>850.6653642223101</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.307705445926</v>
+        <v>310.281135635379</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.345188505514</v>
+        <v>310.281135635379</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0794898987638</v>
+        <v>310.281135635379</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005196</v>
+        <v>310.281135635379</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091202</v>
+        <v>303.3356348861756</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761859</v>
+        <v>291.3858489028821</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761859</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761859</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872722</v>
+        <v>156.8927045872704</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159029</v>
+        <v>376.2952505158992</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985328</v>
+        <v>685.3852714985264</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556951</v>
+        <v>1060.976912556942</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415498</v>
+        <v>1447.259827415486</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975121</v>
+        <v>1798.680568975107</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631101</v>
+        <v>2064.109040631084</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.26202220814</v>
+        <v>2215.262022208122</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380929</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380929</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380929</v>
+        <v>2007.782172489925</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380929</v>
+        <v>1754.178276574265</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380929</v>
+        <v>1423.115389230695</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.777326380929</v>
+        <v>1070.346733960581</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.907545510048</v>
+        <v>696.8809756995008</v>
       </c>
       <c r="Y8" t="n">
-        <v>1966.907545510048</v>
+        <v>696.8809756995008</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.298865693644</v>
+        <v>721.8383612800094</v>
       </c>
       <c r="C9" t="n">
-        <v>756.845836412517</v>
+        <v>547.3853319988824</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>398.4509223376311</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>239.2134673321756</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>92.67890935906061</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676161</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761859</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412465</v>
+        <v>92.56405995424061</v>
       </c>
       <c r="K9" t="n">
-        <v>462.6427349937699</v>
+        <v>355.3411088987136</v>
       </c>
       <c r="L9" t="n">
-        <v>724.8457108234478</v>
+        <v>617.5440847283897</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473555</v>
+        <v>942.8794583784951</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.53576231431</v>
+        <v>1291.234136219249</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729464</v>
+        <v>1587.6908146344</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996794</v>
+        <v>2121.568509855266</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380929</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380929</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380929</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="T9" t="n">
-        <v>2217.777326380929</v>
+        <v>2023.155113972367</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.515466644143</v>
+        <v>1795.054962230508</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.3633584124</v>
+        <v>1559.902853998766</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.126001684199</v>
+        <v>1305.665497270564</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.274501478666</v>
+        <v>1097.813997065031</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.514202713712</v>
+        <v>890.0536983000775</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>585.3004172472251</v>
+        <v>508.0947705358286</v>
       </c>
       <c r="C10" t="n">
-        <v>416.3642343193183</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="D10" t="n">
-        <v>266.2475949069825</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="E10" t="n">
-        <v>266.2475949069825</v>
+        <v>191.2454940255286</v>
       </c>
       <c r="F10" t="n">
-        <v>119.3576474090721</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="G10" t="n">
-        <v>119.3576474090721</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761859</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761859</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692095</v>
+        <v>60.95254262692011</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274043</v>
+        <v>218.0633423274027</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918457</v>
+        <v>474.6375091918432</v>
       </c>
       <c r="M10" t="n">
-        <v>755.548116892174</v>
+        <v>755.5481168921704</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629322</v>
+        <v>1035.213914629317</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546135</v>
+        <v>1277.514248546129</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659245</v>
+        <v>1461.323360659238</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155973</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155973</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155973</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155973</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155973</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="V10" t="n">
-        <v>1505.148182155973</v>
+        <v>1427.942535444577</v>
       </c>
       <c r="W10" t="n">
-        <v>1215.731012119012</v>
+        <v>1138.525365407616</v>
       </c>
       <c r="X10" t="n">
-        <v>987.741461220995</v>
+        <v>910.5358145095985</v>
       </c>
       <c r="Y10" t="n">
-        <v>766.9488820774649</v>
+        <v>689.7432353660683</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,70 +5652,70 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
         <v>753.3092412490405</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5846,13 +5846,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.901655850193</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,25 +6463,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6882,7 +6882,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,7 +7666,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
-        <v>145.2551346857769</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777646</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>25.9054130040272</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>247.5454807529823</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85.5532296388435</v>
+        <v>103.2587840751575</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688271</v>
+        <v>30.32522655688319</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.713750098836414</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>90.9636462189729</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>126.9182872993603</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.310863011585838</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>68.49784254931393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>824712.3561640751</v>
+        <v>824712.356164075</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800386.701928027</v>
+        <v>800386.7019280271</v>
       </c>
     </row>
     <row r="12">
@@ -26316,28 +26316,28 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26346,16 +26346,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597546</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778323</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296943</v>
+        <v>138712.7919296897</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745717</v>
+        <v>589678.7921745757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153556</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648439</v>
+        <v>33617.87336484268</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167265</v>
+        <v>154073.8510167277</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632063</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296178</v>
+        <v>170385.5244296191</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26459,7 +26459,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969338</v>
+        <v>86168.04029969301</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290204.5079508455</v>
+        <v>-290204.5079508459</v>
       </c>
       <c r="C6" t="n">
-        <v>92318.26827223698</v>
+        <v>92318.26827223747</v>
       </c>
       <c r="D6" t="n">
-        <v>241041.0149858142</v>
+        <v>241041.0149858177</v>
       </c>
       <c r="E6" t="n">
-        <v>-79826.83856993567</v>
+        <v>-79514.19724101886</v>
       </c>
       <c r="F6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="G6" t="n">
-        <v>509851.9536046358</v>
+        <v>510164.5949335569</v>
       </c>
       <c r="H6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335567</v>
       </c>
       <c r="I6" t="n">
-        <v>509851.9536046356</v>
+        <v>510164.594933557</v>
       </c>
       <c r="J6" t="n">
-        <v>460787.008876091</v>
+        <v>461099.6502050126</v>
       </c>
       <c r="K6" t="n">
-        <v>449604.7940131</v>
+        <v>449917.4353420214</v>
       </c>
       <c r="L6" t="n">
-        <v>476234.0802397917</v>
+        <v>476546.7215687141</v>
       </c>
       <c r="M6" t="n">
-        <v>355778.1025879089</v>
+        <v>356090.7439168293</v>
       </c>
       <c r="N6" t="n">
-        <v>509851.9536046356</v>
+        <v>510164.594933557</v>
       </c>
       <c r="O6" t="n">
-        <v>509851.9536046357</v>
+        <v>510164.5949335568</v>
       </c>
       <c r="P6" t="n">
-        <v>509851.9536046356</v>
+        <v>510164.594933557</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790483</v>
+        <v>863.7717861790446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952324</v>
+        <v>554.4443315952276</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.511015584705</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814383</v>
+        <v>113.7908296814346</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626257</v>
+        <v>504.2037141626291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132506</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044162</v>
+        <v>618.2639565044208</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132506</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044162</v>
+        <v>618.2639565044208</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132506</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044162</v>
+        <v>618.2639565044208</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>248.9004826028364</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>226.0515678194082</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897333</v>
       </c>
     </row>
     <row r="3">
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>28.08205925027437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>64.04438732278911</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310498</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>128.6813659159891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553077</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.34308217384573</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>225.6798846636763</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271686</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>31.0590661857745</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>324.9080952127179</v>
+        <v>383.3937753986365</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27675,7 +27675,7 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>123.889184979219</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>21.35309392692859</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27830,16 +27830,16 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>66.78827622014933</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.5581625480824</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.91257978328</v>
+        <v>59.35258043176893</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787219</v>
+        <v>76.60428439787273</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734612</v>
+        <v>129.8916290734615</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>121.370017616296</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>87.64546374075415</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719216</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155186</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088542</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>14.6899090850213</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>74.12642366950371</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.608555768565</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305864</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418045</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
         <v>221.290298616738</v>
@@ -28070,7 +28070,7 @@
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>175.7040530795521</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-8.792208340690288e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674563</v>
+        <v>3.472449391674548</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248713</v>
+        <v>35.56222233248698</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725337</v>
+        <v>133.8716051725332</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566393</v>
+        <v>294.719801556638</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062236</v>
+        <v>441.7085843062217</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766841</v>
+        <v>547.9785573766818</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458766</v>
+        <v>609.731729245874</v>
       </c>
       <c r="N8" t="n">
-        <v>619.597826079972</v>
+        <v>619.5978260799694</v>
       </c>
       <c r="O8" t="n">
-        <v>585.068657441508</v>
+        <v>585.0686574415056</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845422</v>
+        <v>499.3425630845401</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451967</v>
+        <v>374.9854692451952</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997775</v>
+        <v>218.1262490997766</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278419</v>
+        <v>79.12844051278385</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205541</v>
+        <v>15.20064721205534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277795951333965</v>
+        <v>0.2777959513339638</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328519</v>
+        <v>1.857924219328511</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930438</v>
+        <v>17.94363653930431</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986349</v>
+        <v>63.96800491986322</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743668</v>
+        <v>175.5330947743661</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693776</v>
+        <v>300.0140174693763</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169226</v>
+        <v>403.4058705169209</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675812</v>
+        <v>470.7556234675793</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436923</v>
+        <v>483.2151240436903</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627814</v>
+        <v>442.0474347627796</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873907</v>
+        <v>354.7820379873891</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391983</v>
+        <v>237.1623968391973</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070812</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498365</v>
+        <v>34.51012749498351</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363633</v>
+        <v>7.488738410363601</v>
       </c>
       <c r="U9" t="n">
-        <v>0.122231856534771</v>
+        <v>0.1222318565347705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765497</v>
+        <v>1.55762125376549</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529688</v>
+        <v>13.84866896529682</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869332</v>
+        <v>46.84191915869312</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412206</v>
+        <v>110.1238226412201</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011186</v>
+        <v>180.9672693011178</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552812</v>
+        <v>231.5757998552803</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243496</v>
+        <v>244.1642116243486</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057693</v>
+        <v>238.3585324057683</v>
       </c>
       <c r="O10" t="n">
-        <v>220.162684123145</v>
+        <v>220.1626841231441</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463287</v>
+        <v>188.3872105463279</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130363</v>
+        <v>130.4295397130357</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658313</v>
+        <v>70.03631564658284</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516778</v>
+        <v>27.14509039516767</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543484</v>
+        <v>6.655290811543456</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629992</v>
+        <v>0.08496115929629956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>157.4143504322377</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>148.555001155824</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35032,10 +35032,10 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029953</v>
+        <v>113.6738970299517</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612431</v>
+        <v>221.6187332612412</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066968</v>
+        <v>312.2121424066946</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186039</v>
+        <v>379.3854960186013</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833811</v>
+        <v>390.1847624833785</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198212</v>
+        <v>354.9704460198188</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292726</v>
+        <v>268.1095673292705</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707472</v>
+        <v>152.6797793707457</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285645358</v>
+        <v>2.540711285644448</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.786503448109</v>
+        <v>48.69546810769938</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7258081338621</v>
+        <v>265.4313625701748</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370484</v>
+        <v>264.8514907370467</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455629</v>
+        <v>328.6215895455609</v>
       </c>
       <c r="N9" t="n">
-        <v>351.873411960359</v>
+        <v>351.873411960357</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318337</v>
+        <v>299.4511903183351</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730604</v>
+        <v>539.270399212996</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890259</v>
+        <v>97.18062275317581</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454784</v>
+        <v>16.76464252454737</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752357</v>
+        <v>158.697777475235</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155974</v>
+        <v>259.1658251155964</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861902</v>
+        <v>283.7480885861892</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849979</v>
+        <v>282.4907047849969</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371847</v>
+        <v>244.7478120371838</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112222</v>
+        <v>185.6657698112214</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134191</v>
+        <v>44.26749646134134</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
